--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1967.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1967.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"country" + 0.001*"foreign" + 0.001*"import" + 0.001*"may" + 0.001*"exchange" + 0.001*"payment" + 0.001*"export" + 0.001*"bank" + 0.001*"per" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.001*"may" + 0.001*"payment" + 0.001*"exchange" + 0.001*"country" + 0.001*"export" + 0.001*"bank" + 0.001*"currency" + 0.001*"per" + 0.001*"foreign"</t>
-  </si>
-  <si>
-    <t>0.023*"import" + 0.016*"exchange" + 0.014*"may" + 0.013*"foreign" + 0.013*"bank" + 0.013*"export" + 0.013*"country" + 0.012*"payment" + 0.011*"account" + 0.011*"currency"</t>
-  </si>
-  <si>
-    <t>0.021*"exchange" + 0.017*"import" + 0.017*"bank" + 0.013*"may" + 0.013*"payment" + 0.012*"account" + 0.012*"foreign" + 0.010*"export" + 0.010*"country" + 0.008*"per"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"foreign" + 0.001*"may" + 0.001*"exchange" + 0.000*"payment" + 0.000*"bank" + 0.000*"export" + 0.000*"account" + 0.000*"country" + 0.000*"area"</t>
+    <t>0.091*"import" + 0.048*"export" + 0.035*"license" + 0.027*"good" + 0.017*"certain" + 0.016*"require" + 0.015*"list" + 0.014*"value" + 0.012*"commodity" + 0.011*"redistribution"</t>
+  </si>
+  <si>
+    <t>0.046*"country" + 0.037*"payment" + 0.036*"currency" + 0.028*"area" + 0.019*"make" + 0.018*"may" + 0.016*"franc" + 0.015*"invisibles" + 0.014*"french" + 0.014*"sterling"</t>
+  </si>
+  <si>
+    <t>0.043*"account" + 0.041*"per" + 0.033*"may" + 0.032*"fund" + 0.028*"cent" + 0.025*"monetary" + 0.024*"international" + 0.023*"resident" + 0.019*"transfer" + 0.018*"nonresident"</t>
+  </si>
+  <si>
+    <t>0.028*"dollar" + 0.019*"however" + 0.017*"january" + 0.015*"year" + 0.014*"rate" + 0.013*"december" + 0.013*"change" + 0.012*"place" + 0.011*"take" + 0.010*"gold"</t>
+  </si>
+  <si>
+    <t>0.043*"exchange" + 0.036*"bank" + 0.032*"foreign" + 0.017*"control" + 0.015*"investment" + 0.013*"approval" + 0.012*"require" + 0.011*"capital" + 0.010*"may" + 0.010*"grant"</t>
   </si>
 </sst>
 </file>
